--- a/test/预加载强度与延迟.xlsx
+++ b/test/预加载强度与延迟.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21030" windowHeight="10730"/>
+    <workbookView windowWidth="21030" windowHeight="10730" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>预加载强度</t>
   </si>
@@ -93,6 +94,15 @@
   <si>
     <t>测试人数</t>
   </si>
+  <si>
+    <t>可见度</t>
+  </si>
+  <si>
+    <t>延迟  个数</t>
+  </si>
+  <si>
+    <t>总延迟</t>
+  </si>
 </sst>
 </file>
 
@@ -104,10 +114,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -459,13 +477,22 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -586,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,34 +625,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,100 +661,107 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -4054,7 +4085,7 @@
   <sheetPr/>
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4078,79 +4109,79 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -4158,79 +4189,79 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>93.788448054353</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>767.154950396891</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>1938.24499999755</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <v>140.00891865082</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>346.900000004098</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>0.00156249998759623</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <v>0.0349999900208786</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>526.210853174537</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <v>1447.09500001045</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
         <v>1008</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="4">
         <v>1008</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="4">
         <v>1008</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="4">
         <v>1008</v>
       </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="4">
         <v>55.45</v>
       </c>
-      <c r="Z2" s="2">
+      <c r="Z2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4238,79 +4269,79 @@
       <c r="A3">
         <v>200</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="4">
         <v>96.9904900342574</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>745.216129363414</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>2041.04999999981</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>109</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>93</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>148.631790065558</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>350.500000000466</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>0.00170103112864548</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <v>0.0449999934062362</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>555.914339268899</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>1561.27500000002</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
         <v>1067</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="4">
         <v>1067</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="4">
         <v>1067</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="4">
         <v>1067</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2">
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
         <v>55</v>
       </c>
-      <c r="Z3" s="2">
+      <c r="Z3" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4318,79 +4349,79 @@
       <c r="A4">
         <v>400</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>93.6222413673598</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>592.751974789632</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1772.20500000112</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>289</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>111</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>174.58133584185</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>320.90999999491</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>0.00160395096089894</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <v>0.0350000045727938</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>679.794614299265</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>1407.15499999351</v>
       </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <v>1063</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="4">
         <v>1063</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="4">
         <v>1063</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="4">
         <v>1063</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2">
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
         <v>54.4</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4398,79 +4429,79 @@
       <c r="A5">
         <v>600</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="4">
         <v>94.6317828980896</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>453.822103593922</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>1732.17000000295</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>356</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>134</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>238.33999537008</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>575.199999992037</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>0.00181481478244273</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>0.0350000045727938</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>965.014694444485</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>2316.76499999594</v>
       </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
         <v>1080</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="4">
         <v>1080</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="4">
         <v>1080</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="4">
         <v>1080</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
         <v>53.7666666666667</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4478,79 +4509,79 @@
       <c r="A6">
         <v>800</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="4">
         <v>95.5138358924531</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>357.3878326182</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>1734.71000000427</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>506</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>229</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>382.211330749416</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>1786.9650000066</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>0.00170111971743674</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <v>0.0300000101560727</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>1634.69947889752</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <v>3765.6549999956</v>
       </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
         <v>1161</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="4">
         <v>1161</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="4">
         <v>1161</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="4">
         <v>1161</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
         <v>0.000861326442721792</v>
       </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
         <v>52.95</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4558,79 +4589,79 @@
       <c r="A7">
         <v>1000</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>95.3013514633328</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>322.606093750202</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>1754.74000000395</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>587</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>190</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>628.846739713865</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>1109.6600000019</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>0.00153846151261276</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <v>0.0350000045727938</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>2576.14568425736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>4919.99499998929</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>1118</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="4">
         <v>1118</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="4">
         <v>1118</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="4">
         <v>1118</v>
       </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
         <v>0.00178890876565295</v>
       </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4">
         <v>52.1666666666667</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4638,79 +4669,79 @@
       <c r="A8">
         <v>1200</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <v>96.9619995762716</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>302.066789473756</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>1697.77500000782</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>640</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>198</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>587.455108885098</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>1043.365000005</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>0.00160714283714133</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>0.0350000045727938</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>2529.58572299639</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>4659.7000000038</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>1148</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="4">
         <v>1148</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="4">
         <v>1148</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="4">
         <v>1148</v>
       </c>
-      <c r="U8" s="2">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2">
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4">
         <v>0.00174216027874565</v>
       </c>
-      <c r="X8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2">
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4">
         <v>52.6333333333333</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="Z8" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4878,79 +4909,79 @@
       <c r="A11">
         <v>1800</v>
       </c>
-      <c r="B11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="4">
         <v>97.5742952879572</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>322.569301947966</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>1767.82999999705</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>619</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>219</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>614.157917760151</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>1106.78000000189</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>0.00187664047598167</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>0.0350000045727938</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>2453.51748468947</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>4552.32499999693</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <v>1143</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="4">
         <v>1143</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="4">
         <v>1143</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="4">
         <v>1143</v>
       </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
         <v>52.4166666666667</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="Z11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4959,4 +4990,230 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" ht="46" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>206</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>0.92</v>
+      </c>
+      <c r="C3">
+        <v>1.03</v>
+      </c>
+      <c r="D3">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>0.92</v>
+      </c>
+      <c r="C4">
+        <v>1.22</v>
+      </c>
+      <c r="D4">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>500</v>
+      </c>
+      <c r="B5">
+        <v>0.92</v>
+      </c>
+      <c r="C5">
+        <v>1.5</v>
+      </c>
+      <c r="D5">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>800</v>
+      </c>
+      <c r="B6">
+        <v>0.92</v>
+      </c>
+      <c r="C6">
+        <v>1.63</v>
+      </c>
+      <c r="D6">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1200</v>
+      </c>
+      <c r="B7">
+        <v>0.92</v>
+      </c>
+      <c r="C7">
+        <v>1.85</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1500</v>
+      </c>
+      <c r="B8">
+        <v>0.92</v>
+      </c>
+      <c r="C8">
+        <v>2.55</v>
+      </c>
+      <c r="D8">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="46" customHeight="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>206</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>3961</v>
+      </c>
+      <c r="C16">
+        <v>3910</v>
+      </c>
+      <c r="D16">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>200</v>
+      </c>
+      <c r="B17">
+        <v>3961</v>
+      </c>
+      <c r="C17">
+        <v>3981</v>
+      </c>
+      <c r="D17">
+        <v>4135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>500</v>
+      </c>
+      <c r="B18">
+        <v>3961</v>
+      </c>
+      <c r="C18">
+        <v>3943</v>
+      </c>
+      <c r="D18">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>800</v>
+      </c>
+      <c r="B19">
+        <v>3961</v>
+      </c>
+      <c r="C19">
+        <v>3915</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1200</v>
+      </c>
+      <c r="B20">
+        <v>3961</v>
+      </c>
+      <c r="C20">
+        <v>4048</v>
+      </c>
+      <c r="D20">
+        <v>4814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1500</v>
+      </c>
+      <c r="B21">
+        <v>3961</v>
+      </c>
+      <c r="C21">
+        <v>3998</v>
+      </c>
+      <c r="D21">
+        <v>4424</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>